--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Thpo</t>
+  </si>
+  <si>
+    <t>Mpl</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thpo</t>
-  </si>
-  <si>
-    <t>Mpl</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,164 +540,226 @@
         <v>0.173943</v>
       </c>
       <c r="I2">
-        <v>0.2214626929521229</v>
+        <v>0.2608001391389875</v>
       </c>
       <c r="J2">
-        <v>0.2214626929521229</v>
+        <v>0.2608001391389875</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5973413333333334</v>
+        <v>0.7852063333333333</v>
       </c>
       <c r="N2">
-        <v>1.792024</v>
+        <v>2.355619</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.984218618779221</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.984218618779221</v>
       </c>
       <c r="Q2">
-        <v>0.03463444784800001</v>
+        <v>0.045527048413</v>
       </c>
       <c r="R2">
-        <v>0.311710030632</v>
+        <v>0.4097434357169999</v>
       </c>
       <c r="S2">
-        <v>0.2214626929521229</v>
+        <v>0.256684352720803</v>
       </c>
       <c r="T2">
-        <v>0.2214626929521229</v>
+        <v>0.256684352720803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.112975</v>
+        <v>0.057981</v>
       </c>
       <c r="H3">
-        <v>0.338925</v>
+        <v>0.173943</v>
       </c>
       <c r="I3">
-        <v>0.4315163197645105</v>
+        <v>0.2608001391389875</v>
       </c>
       <c r="J3">
-        <v>0.4315163197645106</v>
+        <v>0.2608001391389875</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.5973413333333334</v>
+        <v>0.01259033333333333</v>
       </c>
       <c r="N3">
-        <v>1.792024</v>
+        <v>0.037771</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0157813812207789</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.01578138122077889</v>
       </c>
       <c r="Q3">
-        <v>0.06748463713333334</v>
+        <v>0.000730000117</v>
       </c>
       <c r="R3">
-        <v>0.6073617342000001</v>
+        <v>0.006570001052999999</v>
       </c>
       <c r="S3">
-        <v>0.4315163197645105</v>
+        <v>0.004115786418184541</v>
       </c>
       <c r="T3">
-        <v>0.4315163197645106</v>
+        <v>0.00411578641818454</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.1643386666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.493016</v>
+      </c>
+      <c r="I4">
+        <v>0.7391998608610124</v>
+      </c>
+      <c r="J4">
+        <v>0.7391998608610125</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.7852063333333333</v>
+      </c>
+      <c r="N4">
+        <v>2.355619</v>
+      </c>
+      <c r="O4">
+        <v>0.984218618779221</v>
+      </c>
+      <c r="P4">
+        <v>0.984218618779221</v>
+      </c>
+      <c r="Q4">
+        <v>0.1290397618782222</v>
+      </c>
+      <c r="R4">
+        <v>1.161357856904</v>
+      </c>
+      <c r="S4">
+        <v>0.727534266058418</v>
+      </c>
+      <c r="T4">
+        <v>0.7275342660584181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1643386666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.493016</v>
+      </c>
+      <c r="I5">
+        <v>0.7391998608610124</v>
+      </c>
+      <c r="J5">
+        <v>0.7391998608610125</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.09085333333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.27256</v>
-      </c>
-      <c r="I4">
-        <v>0.3470209872833665</v>
-      </c>
-      <c r="J4">
-        <v>0.3470209872833665</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.5973413333333334</v>
-      </c>
-      <c r="N4">
-        <v>1.792024</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.05427045127111111</v>
-      </c>
-      <c r="R4">
-        <v>0.48843406144</v>
-      </c>
-      <c r="S4">
-        <v>0.3470209872833665</v>
-      </c>
-      <c r="T4">
-        <v>0.3470209872833665</v>
+      <c r="M5">
+        <v>0.01259033333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.037771</v>
+      </c>
+      <c r="O5">
+        <v>0.0157813812207789</v>
+      </c>
+      <c r="P5">
+        <v>0.01578138122077889</v>
+      </c>
+      <c r="Q5">
+        <v>0.002069078592888889</v>
+      </c>
+      <c r="R5">
+        <v>0.018621707336</v>
+      </c>
+      <c r="S5">
+        <v>0.01166559480259435</v>
+      </c>
+      <c r="T5">
+        <v>0.01166559480259435</v>
       </c>
     </row>
   </sheetData>
